--- a/src/test/resources/inputdata.xlsx
+++ b/src/test/resources/inputdata.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{220BA25A-9C69-42C6-B631-22FCE811C5A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{030A3C78-B2D2-4D8F-A2BF-3EA5A69DDD70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="8745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedText" sheetId="4" r:id="rId1"/>
+    <sheet name="TestData" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H31"/>
+  <oleSize ref="A1:Q27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Expected Text</t>
   </si>
@@ -46,13 +47,91 @@
   </si>
   <si>
     <t>Call An Agent Header</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Test Value</t>
+  </si>
+  <si>
+    <t>Filed Name</t>
+  </si>
+  <si>
+    <t>TSC -Password reset</t>
+  </si>
+  <si>
+    <t>Exchange Outage</t>
+  </si>
+  <si>
+    <t>Reset Conversation</t>
+  </si>
+  <si>
+    <t>Survey Reset Coversation Text</t>
+  </si>
+  <si>
+    <t>KnowledgeBase View Outages Text</t>
+  </si>
+  <si>
+    <t>Outages Options Text</t>
+  </si>
+  <si>
+    <t>Video Mute Text</t>
+  </si>
+  <si>
+    <t>mute</t>
+  </si>
+  <si>
+    <t>Video Reset Coversation Text</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>madhurvishal5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +919206384048</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>I need a ios and a android mobile  for testing</t>
+  </si>
+  <si>
+    <t>Info Data</t>
+  </si>
+  <si>
+    <t>Tell me about Unisys</t>
+  </si>
+  <si>
+    <t>Info Data Home Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +147,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -78,12 +165,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,15 +178,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,48 +565,175 @@
     <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0FD64-0623-4AE4-B28C-2AD7984A6F7B}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{F5C61806-6505-4274-9301-FAE6AE445273}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>